--- a/Analysis/Bacteriome/stat_result/Chemostat/beta_diversity.xlsx
+++ b/Analysis/Bacteriome/stat_result/Chemostat/beta_diversity.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="HMO" sheetId="1" r:id="rId1"/>
     <sheet name="Lactose" sheetId="2" r:id="rId2"/>
-    <sheet name="all_sample" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -353,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,358 +393,358 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Inoculum</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Batch1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Batch2</t>
-        </is>
-      </c>
       <c r="C2">
-        <v>0.573</v>
+        <v>0.758</v>
       </c>
       <c r="D2">
-        <v>8.042</v>
+        <v>18.825</v>
       </c>
       <c r="E2">
-        <v>0.036</v>
+        <v>0.027</v>
       </c>
       <c r="F2">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Batch1</t>
+          <t>Inoculum</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Batch3</t>
+          <t>Batch2</t>
         </is>
       </c>
       <c r="C3">
-        <v>0.713</v>
+        <v>0.879</v>
       </c>
       <c r="D3">
-        <v>14.882</v>
+        <v>43.724</v>
       </c>
       <c r="E3">
-        <v>0.028</v>
+        <v>0.034</v>
       </c>
       <c r="F3">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Batch1</t>
+          <t>Inoculum</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chemostat1</t>
+          <t>Batch3</t>
         </is>
       </c>
       <c r="C4">
-        <v>0.794</v>
+        <v>0.895</v>
       </c>
       <c r="D4">
-        <v>23.158</v>
+        <v>50.995</v>
       </c>
       <c r="E4">
-        <v>0.037</v>
+        <v>0.031</v>
       </c>
       <c r="F4">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Batch1</t>
+          <t>Inoculum</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chemostat2</t>
+          <t>Chemostat1</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.833</v>
+        <v>0.904</v>
       </c>
       <c r="D5">
-        <v>29.961</v>
+        <v>56.448</v>
       </c>
       <c r="E5">
-        <v>0.028</v>
+        <v>0.034</v>
       </c>
       <c r="F5">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Batch1</t>
+          <t>Inoculum</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chemostat3</t>
+          <t>Chemostat2</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.83</v>
+        <v>0.923</v>
       </c>
       <c r="D6">
-        <v>29.353</v>
+        <v>72.14100000000001</v>
       </c>
       <c r="E6">
-        <v>0.016</v>
+        <v>0.036</v>
       </c>
       <c r="F6">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Batch1</t>
+          <t>Inoculum</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chemostat4</t>
+          <t>Chemostat3</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.822</v>
+        <v>0.919</v>
       </c>
       <c r="D7">
-        <v>27.749</v>
+        <v>67.798</v>
       </c>
       <c r="E7">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="F7">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Batch2</t>
+          <t>Inoculum</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Batch3</t>
+          <t>Chemostat4</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.53</v>
+        <v>0.911</v>
       </c>
       <c r="D8">
-        <v>6.772</v>
+        <v>61.611</v>
       </c>
       <c r="E8">
-        <v>0.031</v>
+        <v>0.025</v>
       </c>
       <c r="F8">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Batch1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Batch2</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Chemostat1</t>
-        </is>
-      </c>
       <c r="C9">
-        <v>0.671</v>
+        <v>0.573</v>
       </c>
       <c r="D9">
-        <v>12.263</v>
+        <v>8.042</v>
       </c>
       <c r="E9">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="F9">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Batch2</t>
+          <t>Batch1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chemostat2</t>
+          <t>Batch3</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.747</v>
+        <v>0.713</v>
       </c>
       <c r="D10">
-        <v>17.671</v>
+        <v>14.882</v>
       </c>
       <c r="E10">
-        <v>0.028</v>
+        <v>0.024</v>
       </c>
       <c r="F10">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Batch2</t>
+          <t>Batch1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chemostat3</t>
+          <t>Chemostat1</t>
         </is>
       </c>
       <c r="C11">
-        <v>0.757</v>
+        <v>0.794</v>
       </c>
       <c r="D11">
-        <v>18.74</v>
+        <v>23.158</v>
       </c>
       <c r="E11">
-        <v>0.036</v>
+        <v>0.026</v>
       </c>
       <c r="F11">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Batch2</t>
+          <t>Batch1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Chemostat4</t>
+          <t>Chemostat2</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.745</v>
+        <v>0.833</v>
       </c>
       <c r="D12">
-        <v>17.56</v>
+        <v>29.961</v>
       </c>
       <c r="E12">
-        <v>0.026</v>
+        <v>0.03</v>
       </c>
       <c r="F12">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Batch3</t>
+          <t>Batch1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chemostat1</t>
+          <t>Chemostat3</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.383</v>
+        <v>0.83</v>
       </c>
       <c r="D13">
-        <v>3.732</v>
+        <v>29.353</v>
       </c>
       <c r="E13">
-        <v>0.027</v>
+        <v>0.034</v>
       </c>
       <c r="F13">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Batch3</t>
+          <t>Batch1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chemostat2</t>
+          <t>Chemostat4</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.618</v>
+        <v>0.822</v>
       </c>
       <c r="D14">
-        <v>9.702999999999999</v>
+        <v>27.749</v>
       </c>
       <c r="E14">
-        <v>0.027</v>
+        <v>0.032</v>
       </c>
       <c r="F14">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Batch2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>Batch3</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Chemostat3</t>
-        </is>
-      </c>
       <c r="C15">
-        <v>0.657</v>
+        <v>0.53</v>
       </c>
       <c r="D15">
-        <v>11.489</v>
+        <v>6.772</v>
       </c>
       <c r="E15">
         <v>0.028</v>
       </c>
       <c r="F15">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Batch3</t>
+          <t>Batch2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chemostat4</t>
+          <t>Chemostat1</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.648</v>
+        <v>0.671</v>
       </c>
       <c r="D16">
-        <v>11.038</v>
+        <v>12.263</v>
       </c>
       <c r="E16">
-        <v>0.039</v>
+        <v>0.041</v>
       </c>
       <c r="F16">
         <v>0.044</v>
@@ -754,7 +753,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chemostat1</t>
+          <t>Batch2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -763,22 +762,22 @@
         </is>
       </c>
       <c r="C17">
-        <v>0.359</v>
+        <v>0.747</v>
       </c>
       <c r="D17">
-        <v>3.362</v>
+        <v>17.671</v>
       </c>
       <c r="E17">
-        <v>0.037</v>
+        <v>0.026</v>
       </c>
       <c r="F17">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chemostat1</t>
+          <t>Batch2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -787,22 +786,22 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.488</v>
+        <v>0.757</v>
       </c>
       <c r="D18">
-        <v>5.716</v>
+        <v>18.74</v>
       </c>
       <c r="E18">
-        <v>0.023</v>
+        <v>0.027</v>
       </c>
       <c r="F18">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chemostat1</t>
+          <t>Batch2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -811,88 +810,256 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.481</v>
+        <v>0.745</v>
       </c>
       <c r="D19">
-        <v>5.565</v>
+        <v>17.56</v>
       </c>
       <c r="E19">
-        <v>0.034</v>
+        <v>0.026</v>
       </c>
       <c r="F19">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chemostat2</t>
+          <t>Batch3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Chemostat3</t>
+          <t>Chemostat1</t>
         </is>
       </c>
       <c r="C20">
-        <v>0.256</v>
+        <v>0.383</v>
       </c>
       <c r="D20">
-        <v>2.066</v>
+        <v>3.732</v>
       </c>
       <c r="E20">
-        <v>0.054</v>
+        <v>0.019</v>
       </c>
       <c r="F20">
-        <v>0.057</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Batch3</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>Chemostat2</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Chemostat4</t>
-        </is>
-      </c>
       <c r="C21">
-        <v>0.28</v>
+        <v>0.618</v>
       </c>
       <c r="D21">
-        <v>2.336</v>
+        <v>9.702999999999999</v>
       </c>
       <c r="E21">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="F21">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Batch3</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>Chemostat3</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22">
+        <v>0.657</v>
+      </c>
+      <c r="D22">
+        <v>11.489</v>
+      </c>
+      <c r="E22">
+        <v>0.04</v>
+      </c>
+      <c r="F22">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Batch3</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Chemostat4</t>
         </is>
       </c>
-      <c r="C22">
+      <c r="C23">
+        <v>0.648</v>
+      </c>
+      <c r="D23">
+        <v>11.038</v>
+      </c>
+      <c r="E23">
+        <v>0.028</v>
+      </c>
+      <c r="F23">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chemostat1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Chemostat2</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>0.359</v>
+      </c>
+      <c r="D24">
+        <v>3.362</v>
+      </c>
+      <c r="E24">
+        <v>0.026</v>
+      </c>
+      <c r="F24">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chemostat1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Chemostat3</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>0.488</v>
+      </c>
+      <c r="D25">
+        <v>5.716</v>
+      </c>
+      <c r="E25">
+        <v>0.025</v>
+      </c>
+      <c r="F25">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chemostat1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Chemostat4</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>0.481</v>
+      </c>
+      <c r="D26">
+        <v>5.565</v>
+      </c>
+      <c r="E26">
+        <v>0.026</v>
+      </c>
+      <c r="F26">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chemostat2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Chemostat3</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>0.256</v>
+      </c>
+      <c r="D27">
+        <v>2.066</v>
+      </c>
+      <c r="E27">
+        <v>0.063</v>
+      </c>
+      <c r="F27">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chemostat2</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Chemostat4</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>0.28</v>
+      </c>
+      <c r="D28">
+        <v>2.336</v>
+      </c>
+      <c r="E28">
+        <v>0.032</v>
+      </c>
+      <c r="F28">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chemostat3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Chemostat4</t>
+        </is>
+      </c>
+      <c r="C29">
         <v>0.098</v>
       </c>
-      <c r="D22">
+      <c r="D29">
         <v>0.65</v>
       </c>
-      <c r="E22">
-        <v>0.889</v>
-      </c>
-      <c r="F22">
-        <v>0.889</v>
+      <c r="E29">
+        <v>0.882</v>
+      </c>
+      <c r="F29">
+        <v>0.882</v>
       </c>
     </row>
   </sheetData>
@@ -901,555 +1068,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Group1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Group2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>p.adj</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Batch1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Batch2</t>
-        </is>
-      </c>
-      <c r="C2">
-        <v>0.707</v>
-      </c>
-      <c r="D2">
-        <v>4.832</v>
-      </c>
-      <c r="E2">
-        <v>0.333</v>
-      </c>
-      <c r="F2">
-        <v>0.368</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Batch1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Batch3</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>0.828</v>
-      </c>
-      <c r="D3">
-        <v>9.619</v>
-      </c>
-      <c r="E3">
-        <v>0.333</v>
-      </c>
-      <c r="F3">
-        <v>0.368</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Batch1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Chemostat1</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>0.871</v>
-      </c>
-      <c r="D4">
-        <v>13.469</v>
-      </c>
-      <c r="E4">
-        <v>0.333</v>
-      </c>
-      <c r="F4">
-        <v>0.368</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Batch1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Chemostat2</t>
-        </is>
-      </c>
-      <c r="C5">
-        <v>0.879</v>
-      </c>
-      <c r="D5">
-        <v>14.467</v>
-      </c>
-      <c r="E5">
-        <v>0.333</v>
-      </c>
-      <c r="F5">
-        <v>0.368</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Batch1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Chemostat3</t>
-        </is>
-      </c>
-      <c r="C6">
-        <v>0.868</v>
-      </c>
-      <c r="D6">
-        <v>13.202</v>
-      </c>
-      <c r="E6">
-        <v>0.333</v>
-      </c>
-      <c r="F6">
-        <v>0.368</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Batch1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Chemostat4</t>
-        </is>
-      </c>
-      <c r="C7">
-        <v>0.874</v>
-      </c>
-      <c r="D7">
-        <v>13.866</v>
-      </c>
-      <c r="E7">
-        <v>0.333</v>
-      </c>
-      <c r="F7">
-        <v>0.368</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Batch2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Batch3</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>0.6860000000000001</v>
-      </c>
-      <c r="D8">
-        <v>4.376</v>
-      </c>
-      <c r="E8">
-        <v>0.333</v>
-      </c>
-      <c r="F8">
-        <v>0.368</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Batch2</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Chemostat1</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>0.726</v>
-      </c>
-      <c r="D9">
-        <v>5.287</v>
-      </c>
-      <c r="E9">
-        <v>0.333</v>
-      </c>
-      <c r="F9">
-        <v>0.368</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Batch2</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Chemostat2</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>0.735</v>
-      </c>
-      <c r="D10">
-        <v>5.552</v>
-      </c>
-      <c r="E10">
-        <v>0.333</v>
-      </c>
-      <c r="F10">
-        <v>0.368</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Batch2</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Chemostat3</t>
-        </is>
-      </c>
-      <c r="C11">
-        <v>0.732</v>
-      </c>
-      <c r="D11">
-        <v>5.468</v>
-      </c>
-      <c r="E11">
-        <v>0.333</v>
-      </c>
-      <c r="F11">
-        <v>0.368</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Batch2</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Chemostat4</t>
-        </is>
-      </c>
-      <c r="C12">
-        <v>0.74</v>
-      </c>
-      <c r="D12">
-        <v>5.704</v>
-      </c>
-      <c r="E12">
-        <v>0.333</v>
-      </c>
-      <c r="F12">
-        <v>0.368</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Batch3</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Chemostat1</t>
-        </is>
-      </c>
-      <c r="C13">
-        <v>0.658</v>
-      </c>
-      <c r="D13">
-        <v>3.848</v>
-      </c>
-      <c r="E13">
-        <v>0.333</v>
-      </c>
-      <c r="F13">
-        <v>0.368</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Batch3</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Chemostat2</t>
-        </is>
-      </c>
-      <c r="C14">
-        <v>0.776</v>
-      </c>
-      <c r="D14">
-        <v>6.92</v>
-      </c>
-      <c r="E14">
-        <v>0.333</v>
-      </c>
-      <c r="F14">
-        <v>0.368</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Batch3</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Chemostat3</t>
-        </is>
-      </c>
-      <c r="C15">
-        <v>0.752</v>
-      </c>
-      <c r="D15">
-        <v>6.077</v>
-      </c>
-      <c r="E15">
-        <v>0.333</v>
-      </c>
-      <c r="F15">
-        <v>0.368</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Batch3</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Chemostat4</t>
-        </is>
-      </c>
-      <c r="C16">
-        <v>0.761</v>
-      </c>
-      <c r="D16">
-        <v>6.373</v>
-      </c>
-      <c r="E16">
-        <v>0.333</v>
-      </c>
-      <c r="F16">
-        <v>0.368</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Chemostat1</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Chemostat2</t>
-        </is>
-      </c>
-      <c r="C17">
-        <v>0.522</v>
-      </c>
-      <c r="D17">
-        <v>2.183</v>
-      </c>
-      <c r="E17">
-        <v>0.333</v>
-      </c>
-      <c r="F17">
-        <v>0.368</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Chemostat1</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Chemostat3</t>
-        </is>
-      </c>
-      <c r="C18">
-        <v>0.517</v>
-      </c>
-      <c r="D18">
-        <v>2.143</v>
-      </c>
-      <c r="E18">
-        <v>0.333</v>
-      </c>
-      <c r="F18">
-        <v>0.368</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Chemostat1</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Chemostat4</t>
-        </is>
-      </c>
-      <c r="C19">
-        <v>0.514</v>
-      </c>
-      <c r="D19">
-        <v>2.116</v>
-      </c>
-      <c r="E19">
-        <v>0.333</v>
-      </c>
-      <c r="F19">
-        <v>0.368</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Chemostat2</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Chemostat3</t>
-        </is>
-      </c>
-      <c r="C20">
-        <v>0.359</v>
-      </c>
-      <c r="D20">
-        <v>1.118</v>
-      </c>
-      <c r="E20">
-        <v>0.333</v>
-      </c>
-      <c r="F20">
-        <v>0.368</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Chemostat2</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Chemostat4</t>
-        </is>
-      </c>
-      <c r="C21">
-        <v>0.334</v>
-      </c>
-      <c r="D21">
-        <v>1.004</v>
-      </c>
-      <c r="E21">
-        <v>0.667</v>
-      </c>
-      <c r="F21">
-        <v>0.667</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Chemostat3</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Chemostat4</t>
-        </is>
-      </c>
-      <c r="C22">
-        <v>0.294</v>
-      </c>
-      <c r="D22">
-        <v>0.833</v>
-      </c>
-      <c r="E22">
-        <v>0.667</v>
-      </c>
-      <c r="F22">
-        <v>0.667</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F29"/>
   <sheetViews>
@@ -1501,16 +1119,16 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.762</v>
+        <v>0.888</v>
       </c>
       <c r="D2">
-        <v>31.96</v>
+        <v>15.847</v>
       </c>
       <c r="E2">
-        <v>0.003</v>
+        <v>0.333</v>
       </c>
       <c r="F2">
-        <v>0.004</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="3">
@@ -1525,16 +1143,16 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.861</v>
+        <v>0.913</v>
       </c>
       <c r="D3">
-        <v>62.086</v>
+        <v>20.95</v>
       </c>
       <c r="E3">
-        <v>0.002</v>
+        <v>0.333</v>
       </c>
       <c r="F3">
-        <v>0.004</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="4">
@@ -1549,16 +1167,16 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.865</v>
+        <v>0.93</v>
       </c>
       <c r="D4">
-        <v>64.06</v>
+        <v>26.671</v>
       </c>
       <c r="E4">
-        <v>0.003</v>
+        <v>0.333</v>
       </c>
       <c r="F4">
-        <v>0.004</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="5">
@@ -1573,16 +1191,16 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.862</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="D5">
-        <v>62.235</v>
+        <v>28.672</v>
       </c>
       <c r="E5">
-        <v>0.001</v>
+        <v>0.333</v>
       </c>
       <c r="F5">
-        <v>0.004</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="6">
@@ -1597,16 +1215,16 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.852</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="D6">
-        <v>57.472</v>
+        <v>28.358</v>
       </c>
       <c r="E6">
-        <v>0.001</v>
+        <v>0.333</v>
       </c>
       <c r="F6">
-        <v>0.004</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="7">
@@ -1621,16 +1239,16 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.843</v>
+        <v>0.924</v>
       </c>
       <c r="D7">
-        <v>53.811</v>
+        <v>24.226</v>
       </c>
       <c r="E7">
-        <v>0.004</v>
+        <v>0.333</v>
       </c>
       <c r="F7">
-        <v>0.005</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="8">
@@ -1645,16 +1263,16 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.848</v>
+        <v>0.929</v>
       </c>
       <c r="D8">
-        <v>55.576</v>
+        <v>26.041</v>
       </c>
       <c r="E8">
-        <v>0.003</v>
+        <v>0.333</v>
       </c>
       <c r="F8">
-        <v>0.004</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="9">
@@ -1669,16 +1287,16 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.538</v>
+        <v>0.707</v>
       </c>
       <c r="D9">
-        <v>11.629</v>
+        <v>4.832</v>
       </c>
       <c r="E9">
-        <v>0.001</v>
+        <v>0.333</v>
       </c>
       <c r="F9">
-        <v>0.004</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="10">
@@ -1693,16 +1311,16 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.67</v>
+        <v>0.828</v>
       </c>
       <c r="D10">
-        <v>20.344</v>
+        <v>9.619</v>
       </c>
       <c r="E10">
-        <v>0.003</v>
+        <v>0.333</v>
       </c>
       <c r="F10">
-        <v>0.004</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="11">
@@ -1717,16 +1335,16 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.743</v>
+        <v>0.871</v>
       </c>
       <c r="D11">
-        <v>28.88</v>
+        <v>13.469</v>
       </c>
       <c r="E11">
-        <v>0.003</v>
+        <v>0.333</v>
       </c>
       <c r="F11">
-        <v>0.004</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="12">
@@ -1741,16 +1359,16 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.749</v>
+        <v>0.879</v>
       </c>
       <c r="D12">
-        <v>29.833</v>
+        <v>14.467</v>
       </c>
       <c r="E12">
-        <v>0.002</v>
+        <v>0.333</v>
       </c>
       <c r="F12">
-        <v>0.004</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="13">
@@ -1765,16 +1383,16 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.743</v>
+        <v>0.868</v>
       </c>
       <c r="D13">
-        <v>28.941</v>
+        <v>13.202</v>
       </c>
       <c r="E13">
-        <v>0.003</v>
+        <v>0.333</v>
       </c>
       <c r="F13">
-        <v>0.004</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="14">
@@ -1789,16 +1407,16 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.749</v>
+        <v>0.874</v>
       </c>
       <c r="D14">
-        <v>29.912</v>
+        <v>13.866</v>
       </c>
       <c r="E14">
-        <v>0.002</v>
+        <v>0.333</v>
       </c>
       <c r="F14">
-        <v>0.004</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="15">
@@ -1813,16 +1431,16 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.471</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="D15">
-        <v>8.897</v>
+        <v>4.376</v>
       </c>
       <c r="E15">
-        <v>0.002</v>
+        <v>0.333</v>
       </c>
       <c r="F15">
-        <v>0.004</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="16">
@@ -1837,16 +1455,16 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.569</v>
+        <v>0.726</v>
       </c>
       <c r="D16">
-        <v>13.217</v>
+        <v>5.287</v>
       </c>
       <c r="E16">
-        <v>0.002</v>
+        <v>0.333</v>
       </c>
       <c r="F16">
-        <v>0.004</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="17">
@@ -1861,16 +1479,16 @@
         </is>
       </c>
       <c r="C17">
-        <v>0.59</v>
+        <v>0.735</v>
       </c>
       <c r="D17">
-        <v>14.375</v>
+        <v>5.552</v>
       </c>
       <c r="E17">
-        <v>0.003</v>
+        <v>0.333</v>
       </c>
       <c r="F17">
-        <v>0.004</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="18">
@@ -1885,16 +1503,16 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.601</v>
+        <v>0.732</v>
       </c>
       <c r="D18">
-        <v>15.042</v>
+        <v>5.468</v>
       </c>
       <c r="E18">
-        <v>0.004</v>
+        <v>0.333</v>
       </c>
       <c r="F18">
-        <v>0.005</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="19">
@@ -1909,16 +1527,16 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.606</v>
+        <v>0.74</v>
       </c>
       <c r="D19">
-        <v>15.358</v>
+        <v>5.704</v>
       </c>
       <c r="E19">
-        <v>0.005</v>
+        <v>0.333</v>
       </c>
       <c r="F19">
-        <v>0.006</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="20">
@@ -1933,16 +1551,16 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.307</v>
+        <v>0.658</v>
       </c>
       <c r="D20">
-        <v>4.421</v>
+        <v>3.848</v>
       </c>
       <c r="E20">
-        <v>0.004</v>
+        <v>0.333</v>
       </c>
       <c r="F20">
-        <v>0.005</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="21">
@@ -1957,16 +1575,16 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.477</v>
+        <v>0.776</v>
       </c>
       <c r="D21">
-        <v>9.125999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="E21">
-        <v>0.003</v>
+        <v>0.333</v>
       </c>
       <c r="F21">
-        <v>0.004</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="22">
@@ -1981,16 +1599,16 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.49</v>
+        <v>0.752</v>
       </c>
       <c r="D22">
-        <v>9.609999999999999</v>
+        <v>6.077</v>
       </c>
       <c r="E22">
-        <v>0.003</v>
+        <v>0.333</v>
       </c>
       <c r="F22">
-        <v>0.004</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="23">
@@ -2005,16 +1623,16 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.5</v>
+        <v>0.761</v>
       </c>
       <c r="D23">
-        <v>10.017</v>
+        <v>6.373</v>
       </c>
       <c r="E23">
-        <v>0.002</v>
+        <v>0.333</v>
       </c>
       <c r="F23">
-        <v>0.004</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="24">
@@ -2029,16 +1647,16 @@
         </is>
       </c>
       <c r="C24">
-        <v>0.202</v>
+        <v>0.522</v>
       </c>
       <c r="D24">
-        <v>2.536</v>
+        <v>2.183</v>
       </c>
       <c r="E24">
-        <v>0.017</v>
+        <v>0.333</v>
       </c>
       <c r="F24">
-        <v>0.019</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="25">
@@ -2053,16 +1671,16 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.266</v>
+        <v>0.517</v>
       </c>
       <c r="D25">
-        <v>3.617</v>
+        <v>2.143</v>
       </c>
       <c r="E25">
-        <v>0.004</v>
+        <v>0.333</v>
       </c>
       <c r="F25">
-        <v>0.005</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="26">
@@ -2077,16 +1695,16 @@
         </is>
       </c>
       <c r="C26">
-        <v>0.269</v>
+        <v>0.514</v>
       </c>
       <c r="D26">
-        <v>3.685</v>
+        <v>2.116</v>
       </c>
       <c r="E26">
-        <v>0.001</v>
+        <v>0.333</v>
       </c>
       <c r="F26">
-        <v>0.004</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="27">
@@ -2101,16 +1719,16 @@
         </is>
       </c>
       <c r="C27">
-        <v>0.093</v>
+        <v>0.359</v>
       </c>
       <c r="D27">
-        <v>1.027</v>
+        <v>1.118</v>
       </c>
       <c r="E27">
-        <v>0.401</v>
+        <v>0.333</v>
       </c>
       <c r="F27">
-        <v>0.416</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="28">
@@ -2125,16 +1743,16 @@
         </is>
       </c>
       <c r="C28">
-        <v>0.104</v>
+        <v>0.334</v>
       </c>
       <c r="D28">
-        <v>1.163</v>
+        <v>1.004</v>
       </c>
       <c r="E28">
-        <v>0.26</v>
+        <v>0.667</v>
       </c>
       <c r="F28">
-        <v>0.28</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="29">
@@ -2149,16 +1767,16 @@
         </is>
       </c>
       <c r="C29">
-        <v>0.04</v>
+        <v>0.294</v>
       </c>
       <c r="D29">
-        <v>0.413</v>
+        <v>0.833</v>
       </c>
       <c r="E29">
-        <v>0.974</v>
+        <v>0.667</v>
       </c>
       <c r="F29">
-        <v>0.974</v>
+        <v>0.667</v>
       </c>
     </row>
   </sheetData>
